--- a/Megi/2017.05.19 小桂两日游/2017.05.20惠阳小桂两日游.xlsx
+++ b/Megi/2017.05.19 小桂两日游/2017.05.20惠阳小桂两日游.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="122">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小桂农庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钓鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,18 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>唱歌、桌球、射箭、羽毛球、乒乓球、秋千、麻将等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农庄，民宿（麻将）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民宿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>农庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回深圳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>农庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>帐篷编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -513,6 +489,18 @@
   </si>
   <si>
     <t>罗群益、梁海山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他项目、准备烧烤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他地点、渔排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,15 +644,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -673,9 +652,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -689,6 +665,18 @@
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,10 +1056,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1088,13 +1076,13 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -1103,16 +1091,16 @@
         <v>18219208891</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -1121,13 +1109,13 @@
         <v>18219208891</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1144,7 +1132,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1162,7 +1150,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -1180,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1198,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -1216,15 +1204,15 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -1233,13 +1221,13 @@
         <v>15112360392</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1256,30 +1244,30 @@
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C12" s="5">
         <v>13632741928</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1462,7 +1450,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1496,35 +1484,35 @@
         <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="25">
+      <c r="A2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="21">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="21">
         <v>0.70833333333333337</v>
       </c>
       <c r="F2" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>124</v>
+      <c r="G2" s="20" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>43</v>
+      <c r="A3" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -1543,11 +1531,11 @@
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1565,16 +1553,16 @@
         <v>0.10416666666666669</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D5" s="7">
         <v>0.5</v>
@@ -1587,16 +1575,16 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D6" s="7">
         <v>0.58333333333333337</v>
@@ -1609,16 +1597,16 @@
         <v>0.16666666666666663</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="8" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="D7" s="7">
         <v>0.58333333333333337</v>
@@ -1631,16 +1619,16 @@
         <v>0.16666666666666663</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D8" s="7">
         <v>0.75</v>
@@ -1653,16 +1641,16 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D9" s="7">
         <v>0.83333333333333337</v>
@@ -1675,18 +1663,18 @@
         <v>0.16666666666666663</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>44</v>
+      <c r="A10" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D10" s="7">
         <v>0.33333333333333331</v>
@@ -1699,16 +1687,16 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D11" s="7">
         <v>0.5</v>
@@ -1721,16 +1709,16 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
         <v>0.58333333333333337</v>
@@ -1743,16 +1731,16 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D13" s="7">
         <v>0.60416666666666663</v>
@@ -1765,7 +1753,7 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1905,7 +1893,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="5.875" style="18" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="8.625" customWidth="1"/>
@@ -1914,114 +1902,114 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D2" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>2</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="12" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2061,30 +2049,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2094,7 +2082,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2104,7 +2092,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2114,7 +2102,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2182,24 +2170,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2">
         <v>700</v>
@@ -2212,28 +2200,28 @@
         <v>422</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>300</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D13" si="0">B3-C3</f>
+        <f t="shared" ref="D3:D12" si="0">B3-C3</f>
         <v>300</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2">
         <v>100</v>
@@ -2244,12 +2232,12 @@
         <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2">
         <v>400</v>
@@ -2260,12 +2248,12 @@
         <v>400</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2">
         <v>600</v>
@@ -2276,12 +2264,12 @@
         <v>600</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2">
         <v>200</v>
@@ -2292,12 +2280,12 @@
         <v>200</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2">
         <v>33</v>
@@ -2308,7 +2296,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2324,12 +2312,12 @@
         <v>1000</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2">
         <v>275</v>
@@ -2340,12 +2328,12 @@
         <v>275</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2">
         <v>200</v>
@@ -2356,12 +2344,12 @@
         <v>200</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2">
         <v>200</v>
@@ -2372,12 +2360,12 @@
         <v>200</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3">
         <f>SUM(B2:B12)</f>
@@ -2388,7 +2376,7 @@
         <f>SUM(D2:D12)</f>
         <v>3730</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2406,14 +2394,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="20"/>
+    <col min="1" max="1" width="9" style="17"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>93</v>
+      <c r="A1" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2423,32 +2411,32 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -2459,47 +2447,47 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="25">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="22">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>99</v>
+      <c r="B8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2534,18 +2522,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2">
         <v>278</v>

--- a/Megi/2017.05.19 小桂两日游/2017.05.20惠阳小桂两日游.xlsx
+++ b/Megi/2017.05.19 小桂两日游/2017.05.20惠阳小桂两日游.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="参与人员" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="142">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,6 +501,86 @@
   </si>
   <si>
     <t>其他地点、渔排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤器具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗群益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19日租车后小区停车费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提车后，两辆车回宝安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李丹支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤食材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20日到惠阳车1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔排消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10人2日用料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠阳停车费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（惠阳）+10（陈攀、段仪） + 13（回家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租车油费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小罗车油费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租鱼竿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7根</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,6 +588,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -619,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -678,6 +761,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1449,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2156,7 +2242,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2508,23 +2594,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="26" t="s">
         <v>112</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2535,114 +2622,205 @@
       <c r="A2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="27">
         <v>278</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="27">
+        <v>227.96</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="27">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="27">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="27">
+        <v>344</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="27">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="27">
+        <v>313</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="27">
+        <v>210</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="27">
+        <v>1600</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="27">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="27">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="27">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="27">
+        <f>SUM(B2:B13)</f>
+        <v>3179.96</v>
+      </c>
+      <c r="C25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Megi/2017.05.19 小桂两日游/2017.05.20惠阳小桂两日游.xlsx
+++ b/Megi/2017.05.19 小桂两日游/2017.05.20惠阳小桂两日游.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="148">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,6 +581,30 @@
   </si>
   <si>
     <t>7根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠阳停车费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买海鲜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老赵支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老赵、福全打车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,6 +773,9 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -761,9 +788,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1597,7 +1621,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1621,7 +1645,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1643,7 +1667,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="2" t="s">
         <v>80</v>
       </c>
@@ -1665,7 +1689,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1687,7 +1711,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="8" t="s">
         <v>120</v>
       </c>
@@ -1709,7 +1733,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1731,7 +1755,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1753,7 +1777,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1777,7 +1801,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1799,7 +1823,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
@@ -1821,7 +1845,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
@@ -2004,16 +2028,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="25" t="s">
         <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2021,41 +2045,41 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2063,37 +2087,37 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="12" t="s">
         <v>102</v>
       </c>
@@ -2497,7 +2521,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2508,7 +2532,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="5" t="s">
         <v>88</v>
       </c>
@@ -2517,7 +2541,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="5" t="s">
         <v>90</v>
       </c>
@@ -2537,7 +2561,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="28">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2548,7 +2572,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2557,7 +2581,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="25">
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -2568,7 +2592,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>91</v>
       </c>
@@ -2594,16 +2618,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="24" customWidth="1"/>
     <col min="3" max="3" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2611,7 +2635,7 @@
       <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>112</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2622,7 +2646,7 @@
       <c r="A2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="23">
         <v>278</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2633,7 +2657,7 @@
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="23">
         <v>227.96</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2644,7 +2668,7 @@
       <c r="A4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="23">
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2655,7 +2679,7 @@
       <c r="A5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="23">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2666,7 +2690,7 @@
       <c r="A6" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="23">
         <v>344</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2677,7 +2701,7 @@
       <c r="A7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="23">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2688,7 +2712,7 @@
       <c r="A8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="23">
         <v>313</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2699,7 +2723,7 @@
       <c r="A9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="23">
         <v>210</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2708,114 +2732,142 @@
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="27">
-        <v>1600</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="B10" s="23">
+        <v>93</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="27">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>134</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1600</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="27">
-        <v>24</v>
+        <v>124</v>
+      </c>
+      <c r="B12" s="23">
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="27">
-        <v>100</v>
+        <v>142</v>
+      </c>
+      <c r="B13" s="23">
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="23">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="23">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="2"/>
-    </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="23">
+        <v>103</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="27"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="27"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="27"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="27"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="27"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="27"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="27"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="27">
-        <f>SUM(B2:B13)</f>
-        <v>3179.96</v>
-      </c>
-      <c r="C25" s="2"/>
+      <c r="B27" s="23">
+        <f>SUM(B2:B15)</f>
+        <v>3316.96</v>
+      </c>
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Megi/2017.05.19 小桂两日游/2017.05.20惠阳小桂两日游.xlsx
+++ b/Megi/2017.05.19 小桂两日游/2017.05.20惠阳小桂两日游.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="163">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,15 +212,327 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>买水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐巾纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扑克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊期望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钓鱼、棋牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注（是否小孩，有啥不方便的地方等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘婷</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>梁海山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需住宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机+导游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租车500，过路费100，油费100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5顶 * （30 过夜费 + 50 租用费）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11人 * 25 元/人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11人 * 3元/人（每人两瓶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10人 * 30 元/人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油费+过路费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小罗的车也要烧油和过路费的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应急储备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个女的，一个房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敏</t>
+  </si>
+  <si>
+    <t>赵景旭</t>
+  </si>
+  <si>
+    <t>小孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐篷编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵景旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁海山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗群益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现代ix25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤B2x5v0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈攀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林福全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗高勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全新别克凯越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵广勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵景旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼饵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>买水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早餐</t>
+    <t>网上租车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.05.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳龙华汽车站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗群益、梁海山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他项目、准备烧烤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他地点、渔排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤器具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗群益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19日租车后小区停车费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提车后，两辆车回宝安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李丹支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤食材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20日到惠阳车1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔排消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10人2日用料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠阳停车费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（惠阳）+10（陈攀、段仪） + 13（回家）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,85 +540,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐巾纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扑克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊期望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钓鱼、棋牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常用品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15间 * 180 元/间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注（是否小孩，有啥不方便的地方等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘婷</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>梁海山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需住宿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司机+导游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租车500，过路费100，油费100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐船</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帐篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5顶 * （30 过夜费 + 50 租用费）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10人 * 60 元/人</t>
+    <t>油费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小罗车油费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租鱼竿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买海鲜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老赵支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租车油费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老赵支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金额 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗群益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵广勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（惠阳）+10（到清湖） 罗高勇支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗高勇支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗高勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫付统计（按个人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收1000，未收1788</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租烧烤炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租鱼竿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10人十杆，每杆30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10人 * 60 元/人,临时加了点水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -314,297 +664,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11人 * 25 元/人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11人 * 3元/人（每人两瓶）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10人 * 30 元/人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油费+过路费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小罗的车也要烧油和过路费的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应急储备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个女的，一个房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钓鱼鱼饵啥的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李敏</t>
-  </si>
-  <si>
-    <t>赵景旭</t>
-  </si>
-  <si>
-    <t>小孩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帐篷编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵景旭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁海山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗群益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乘客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现代ix25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粤B2x5v0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈攀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林福全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗高勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全新别克凯越</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵广勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵景旭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>段仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼饵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网上租车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.05.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳龙华汽车站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗群益、梁海山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渔排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他项目、准备烧烤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他地点、渔排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧烤器具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗群益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停车费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19日租车后小区停车费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提车后，两辆车回宝安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李丹支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧烤食材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20日到惠阳车1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渔排消费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10人2日用料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惠阳停车费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1（惠阳）+10（陈攀、段仪） + 13（回家）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租车油费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小罗车油费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租鱼竿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停车费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惠阳停车费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买海鲜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老赵支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打车费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老赵、福全打车</t>
+    <t>钓鱼鱼饵啥的，一般是1个人50块钱左右的料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,7 +675,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,16 +713,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -722,11 +801,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -788,6 +904,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1166,10 +1307,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1186,13 +1327,13 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -1201,16 +1342,16 @@
         <v>18219208891</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -1219,13 +1360,13 @@
         <v>18219208891</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1242,7 +1383,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1260,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -1278,7 +1419,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -1296,7 +1437,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -1314,15 +1455,15 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -1331,13 +1472,13 @@
         <v>15112360392</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1354,30 +1495,30 @@
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="5">
         <v>13632741928</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1599,13 +1740,13 @@
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D2" s="21">
         <v>0.66666666666666663</v>
@@ -1617,7 +1758,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1669,10 +1810,10 @@
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7">
         <v>0.5</v>
@@ -1713,10 +1854,10 @@
     <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D7" s="7">
         <v>0.58333333333333337</v>
@@ -1738,7 +1879,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D8" s="7">
         <v>0.75</v>
@@ -1760,7 +1901,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D9" s="7">
         <v>0.83333333333333337</v>
@@ -1784,7 +1925,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D10" s="7">
         <v>0.33333333333333331</v>
@@ -1806,7 +1947,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D11" s="7">
         <v>0.5</v>
@@ -1828,7 +1969,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D12" s="7">
         <v>0.58333333333333337</v>
@@ -1850,7 +1991,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D13" s="7">
         <v>0.60416666666666663</v>
@@ -2012,19 +2153,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2032,16 +2173,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2050,7 +2191,7 @@
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2059,7 +2200,7 @@
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2068,7 +2209,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2076,14 +2217,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2092,7 +2233,7 @@
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2101,7 +2242,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2110,7 +2251,7 @@
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2119,7 +2260,7 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2159,7 +2300,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>40</v>
@@ -2168,21 +2309,21 @@
         <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2192,7 +2333,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2202,7 +2343,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2212,7 +2353,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2263,230 +2404,285 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="24" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="43.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="39" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="23">
         <v>700</v>
       </c>
-      <c r="C2" s="2">
-        <v>278</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="23">
+        <v>472</v>
+      </c>
+      <c r="D2" s="23">
         <f>B2-C2</f>
-        <v>422</v>
+        <v>228</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2">
+        <v>157</v>
+      </c>
+      <c r="B3" s="23">
         <v>300</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D12" si="0">B3-C3</f>
-        <v>300</v>
+      <c r="C3" s="23">
+        <v>210</v>
+      </c>
+      <c r="D3" s="23">
+        <f t="shared" ref="D3:D15" si="0">B3-C3</f>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="2">
-        <v>100</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
+        <v>24</v>
+      </c>
+      <c r="B4" s="23">
+        <v>300</v>
+      </c>
+      <c r="C4" s="23">
+        <v>210</v>
+      </c>
+      <c r="D4" s="23">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="2">
-        <v>400</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+        <v>67</v>
+      </c>
+      <c r="B5" s="23">
+        <v>100</v>
+      </c>
+      <c r="C5" s="23">
+        <v>80</v>
+      </c>
+      <c r="D5" s="23">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2">
-        <v>600</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+        <v>68</v>
+      </c>
+      <c r="B6" s="23">
+        <v>400</v>
+      </c>
+      <c r="C6" s="23">
+        <v>150</v>
+      </c>
+      <c r="D6" s="23">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="2">
-        <v>200</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+        <v>26</v>
+      </c>
+      <c r="B7" s="23">
+        <v>500</v>
+      </c>
+      <c r="C7" s="23">
+        <v>571.96</v>
+      </c>
+      <c r="D7" s="40">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>81</v>
+        <v>-71.960000000000036</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+        <v>155</v>
+      </c>
+      <c r="B8" s="23">
+        <v>100</v>
+      </c>
+      <c r="C8" s="23">
+        <v>100</v>
+      </c>
+      <c r="D8" s="23">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
+        <v>156</v>
+      </c>
+      <c r="B9" s="23">
+        <v>200</v>
+      </c>
+      <c r="C9" s="23">
+        <v>150</v>
+      </c>
+      <c r="D9" s="23">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2">
+        <v>48</v>
+      </c>
+      <c r="B10" s="23">
+        <v>33</v>
+      </c>
+      <c r="C10" s="23">
+        <v>30</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1091</v>
+      </c>
+      <c r="D11" s="40">
+        <f t="shared" si="0"/>
+        <v>-91</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="23">
         <v>275</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="C12" s="23">
+        <v>0</v>
+      </c>
+      <c r="D12" s="23">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="23">
+        <v>200</v>
+      </c>
+      <c r="C13" s="23">
+        <v>199</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="23">
         <v>200</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="C14" s="23">
+        <v>313</v>
+      </c>
+      <c r="D14" s="40">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="2">
-        <v>200</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+        <v>-113</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="22">
+        <f>SUM(B2:B14)</f>
+        <v>4308</v>
+      </c>
+      <c r="C15" s="22">
+        <f>SUM(C2:C14)</f>
+        <v>3576.96</v>
+      </c>
+      <c r="D15" s="22">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="3">
-        <f>SUM(B2:B12)</f>
-        <v>4008</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2">
-        <f>SUM(D2:D12)</f>
-        <v>3730</v>
-      </c>
-      <c r="E13" s="14"/>
+        <v>731.04</v>
+      </c>
+      <c r="E15" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2511,7 +2707,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2528,25 +2724,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
       <c r="B4" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -2557,7 +2753,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -2568,7 +2764,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -2577,7 +2773,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -2585,19 +2781,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2618,10 +2814,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2629,250 +2825,364 @@
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="14.875" style="24" customWidth="1"/>
     <col min="3" max="3" width="38.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="23">
         <v>278</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="23">
+        <v>2788</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="23">
+        <v>227.96</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="23">
+        <v>571.96</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="23">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="23">
+        <v>196</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="23">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="23">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B7" s="23">
+        <v>344</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="23">
-        <v>227.96</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="23">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B9" s="23">
+        <v>313</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="23">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="23">
+        <v>210</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="23">
+        <v>93</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="23">
-        <v>344</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="23">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="23">
-        <v>313</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="23">
-        <v>210</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="23">
-        <v>93</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="23">
+      <c r="B12" s="23">
         <v>1600</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="23">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B13" s="23">
         <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B14" s="23">
+        <v>10</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="23">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="23">
+        <v>11</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="23">
+        <v>120</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="23">
+        <v>160</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="23">
-        <v>100</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="2" t="s">
+      <c r="B19" s="23">
+        <v>103</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="23">
-        <v>103</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="23">
-        <f>SUM(B2:B15)</f>
-        <v>3316.96</v>
-      </c>
-      <c r="C27" s="2"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="22">
+        <f>SUM(B3:B19)</f>
+        <v>3576.96</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="22">
+        <f>SUM(F3:F6)</f>
+        <v>3576.96</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Megi/2017.05.19 小桂两日游/2017.05.20惠阳小桂两日游.xlsx
+++ b/Megi/2017.05.19 小桂两日游/2017.05.20惠阳小桂两日游.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="参与人员" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="车辆安排" sheetId="3" r:id="rId3"/>
     <sheet name="采购计划" sheetId="4" r:id="rId4"/>
     <sheet name="预算" sheetId="5" r:id="rId5"/>
-    <sheet name="帐篷安排" sheetId="6" r:id="rId6"/>
-    <sheet name="实际支出" sheetId="8" r:id="rId7"/>
+    <sheet name="实际支出" sheetId="8" r:id="rId6"/>
+    <sheet name="帐篷安排" sheetId="6" r:id="rId7"/>
     <sheet name="凭证" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="168">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -604,10 +604,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赵广勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1（惠阳）+10（到清湖） 罗高勇支付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -665,6 +661,30 @@
   </si>
   <si>
     <t>钓鱼鱼饵啥的，一般是1个人50块钱左右的料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老赵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵景旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家属支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美记支付合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -892,6 +912,13 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -901,13 +928,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -926,9 +946,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1762,7 +1785,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1786,7 +1809,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1808,7 +1831,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="2" t="s">
         <v>76</v>
       </c>
@@ -1830,7 +1853,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1852,7 +1875,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="8" t="s">
         <v>114</v>
       </c>
@@ -1874,7 +1897,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1896,7 +1919,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1918,7 +1941,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1942,7 +1965,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1964,7 +1987,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
@@ -1986,7 +2009,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
@@ -2169,16 +2192,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="32" t="s">
         <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2186,41 +2209,41 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="32">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2228,37 +2251,37 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="12" t="s">
         <v>96</v>
       </c>
@@ -2407,7 +2430,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2429,11 +2452,11 @@
       <c r="C1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="29" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2456,7 +2479,7 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="23">
         <v>300</v>
@@ -2469,7 +2492,7 @@
         <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2534,17 +2557,17 @@
       <c r="C7" s="23">
         <v>571.96</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="30">
         <f t="shared" si="0"/>
         <v>-71.960000000000036</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>159</v>
+      <c r="E7" s="31" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="23">
         <v>100</v>
@@ -2560,7 +2583,7 @@
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" s="23">
         <v>200</v>
@@ -2604,12 +2627,12 @@
       <c r="C11" s="23">
         <v>1091</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="30">
         <f t="shared" si="0"/>
         <v>-91</v>
       </c>
-      <c r="E11" s="41" t="s">
-        <v>161</v>
+      <c r="E11" s="31" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2658,12 +2681,12 @@
       <c r="C14" s="23">
         <v>313</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="30">
         <f t="shared" si="0"/>
         <v>-113</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>162</v>
+      <c r="E14" s="31" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2691,6 +2714,423 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="38.125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="23">
+        <v>278</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="23">
+        <v>2788</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="23">
+        <v>227.96</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="23">
+        <v>571.96</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="23">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="23">
+        <v>196</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="23">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="23">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="23">
+        <v>344</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="23">
+        <v>313</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="23">
+        <v>210</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="23">
+        <v>93</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="23">
+        <v>1600</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="23">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="23">
+        <v>10</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="23">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="23">
+        <v>11</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="23">
+        <v>120</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="23">
+        <v>160</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="23">
+        <v>103</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="22">
+        <f>SUM(B3:B19)</f>
+        <v>3576.96</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="22">
+        <f>SUM(F3:F6)</f>
+        <v>3576.96</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="43"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="44">
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="44">
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="44">
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="44"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="43">
+        <f>SUM(B20:B26)</f>
+        <v>2901.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -2717,7 +3157,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2728,7 +3168,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
@@ -2737,7 +3177,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="5" t="s">
         <v>84</v>
       </c>
@@ -2757,7 +3197,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2768,7 +3208,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2777,7 +3217,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="32">
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -2788,7 +3228,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="5" t="s">
         <v>85</v>
       </c>
@@ -2809,380 +3249,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="38.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="23">
-        <v>278</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="23">
-        <v>2788</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="23">
-        <v>227.96</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="23">
-        <v>571.96</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="23">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="23">
-        <v>196</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="23">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="23">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="23">
-        <v>344</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="23">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="23">
-        <v>313</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="23">
-        <v>210</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="23">
-        <v>93</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="23">
-        <v>1600</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="23">
-        <v>44</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="23">
-        <v>10</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="23">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="23">
-        <v>11</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="23">
-        <v>120</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="23">
-        <v>160</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="23">
-        <v>103</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="22">
-        <f>SUM(B3:B19)</f>
-        <v>3576.96</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="22">
-        <f>SUM(F3:F6)</f>
-        <v>3576.96</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
